--- a/URS/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>撥款序號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>工作月</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PerfDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>BormNo</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -373,12 +365,24 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>撥款日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">WorkMonth = ,AND BonusType ^i ,AND MediaFg = </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款序號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>協辦獎金、加碼獎金，撥款序號為0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款日/追回日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.BonusType
@@ -388,7 +392,7 @@
 4:晤談二人員津貼(目前沒有)
 5:協辦獎金(L5511寫入)
 6:專業獎勵金(L5407，初階授信通過時寫入，只寫一次)
-7:加碼獎金(L5512初階授信通過時寫入)
+7:加碼獎金(L5512寫入)
 (依照LN270檔-獎勵金發放檔)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1064,10 +1068,10 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -1092,7 +1096,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1100,7 +1104,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1120,7 +1124,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1154,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>12</v>
@@ -1177,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="21"/>
@@ -1195,10 +1199,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>20</v>
@@ -1215,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>20</v>
@@ -1228,7 +1232,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1237,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>18</v>
@@ -1257,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>18</v>
@@ -1277,10 +1281,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>18</v>
@@ -1289,7 +1293,9 @@
         <v>3</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="33" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="162">
       <c r="A15" s="37">
@@ -1297,20 +1303,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1319,10 +1325,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>26</v>
@@ -1339,20 +1345,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="E17" s="34">
         <v>5</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1361,20 +1367,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="D18" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="34">
         <v>1</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1383,13 +1389,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="34">
         <v>14</v>
@@ -1398,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1407,13 +1413,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="34">
         <v>14</v>
@@ -1422,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1431,13 +1437,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -1451,10 +1457,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>18</v>
@@ -1463,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1475,7 +1481,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>18</v>
@@ -1491,13 +1497,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>36</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>37</v>
       </c>
       <c r="E24" s="21">
         <v>50</v>
@@ -1511,10 +1517,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>18</v>
@@ -1523,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1532,13 +1538,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="21">
         <v>8</v>
@@ -1551,20 +1557,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="34">
         <v>1</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1692,21 +1698,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
